--- a/biology/Zoologie/Colin_huppé/Colin_huppé.xlsx
+++ b/biology/Zoologie/Colin_huppé/Colin_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colinus cristatus
 Le Colin huppé (Colinus cristatus) est une espèce d'oiseau galliforme appartenant à la famille des Odontophoridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure entre 22 et 24 cm de longueur pour une masse de 131 à 141 g. Le dessus du corps est brun terne vermiculé de gris, de blanc et de noir. Les pattes sont brun grisâtre. Cette espèce est caractérisée notamment par de grandes taches blanches marquant le ventre. Elle présente un dimorphisme sexuel : le mâle arborant une huppe plus développée que la femelle et un plumage un peu plus coloré tandis que chez celle-ci il est plus chamoisé, la tête (en particulier la face et la gorge mouchetées ou barrées de noir) et le dessous du corps sont également davantage marqués de blanc. Le jeune ressemble beaucoup à la femelle mais les rayures du plumage sont moins distinctes et les couvertures primaires bordées de chamois.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers le nord de l'Amérique du Sud, le Costa Rica et les îles Sous-le-Vent.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats naturels sont les zones arbustives sèches subtropicales ou tropicales, les zones humides saisonnières ou inondées des prairies subtropicales ou tropicales en plaine, et les anciennes forêts dégradées jusqu'à environ 1 500 m d'altitude (localement jusqu'à 3 200 m en Colombie).
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en groupes pouvant atteindre et même dépasser 12 individus.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colin_hupp%C3%A9</t>
+          <t>Colin_huppé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 14 sous-espèces qui diffèrent en particulier par la coloration de la face et de la poitrine mais aussi par la longueur de la huppe (ces différences sont plus nettes chez les mâles que chez les femelles) :
 mariae ;
